--- a/for Hector/Tom/Good Data/SM001LEFT-Done.xlsx
+++ b/for Hector/Tom/Good Data/SM001LEFT-Done.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shq153\Desktop\Caltrans\for Hector\Tom\Good Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
@@ -12,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -526,6 +531,30 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>D04</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> SM 001 SB PM 0 to 50</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -539,24 +568,35 @@
         <c:spPr>
           <a:noFill/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
           <a:noFill/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
           <a:noFill/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -574,18 +614,29 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.011810706830606E-4"/>
+              <c:y val="-2.7591801848177871E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:tx>
             <c:rich>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
                   <a:t>HMA Medium Overlay - 04-108BQT - Beg PM:28.684 - End PM:37.900 - CAPM, Length: 9.216</a:t>
@@ -593,19 +644,141 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:spPr/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="5.1434418405313879E-3"/>
+              <c:y val="-4.8853723929670079E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>HMA Medium Overlay - 04-4H210 - Beg PM: 37.900 - End PM: 48.558 - CAPM, Length: 10.658</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -623,38 +796,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="7"/>
+        <c:idx val="9"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>HMA Medium Overlay - 04-4H210 - Beg PM: 37.900 - End PM: 48.558 - CAPM, Length: 10.658</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="1"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -672,13 +825,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="9"/>
+        <c:idx val="10"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -696,13 +854,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="10"/>
+        <c:idx val="11"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -720,13 +883,57 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="11"/>
+        <c:idx val="12"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-4.9165319063156371E-3"/>
+              <c:y val="-4.2402111026444325E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Digouts - 04-2R250 - Beg PM:41.337 - End PM:42.014 - HM Corrective, Length:0.677</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -744,31 +951,193 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="12"/>
+        <c:idx val="14"/>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="6.023374249197664E-2"/>
-              <c:y val="-3.1649419767027551E-2"/>
+              <c:x val="-5.3708420388679179E-2"/>
+              <c:y val="-3.7330084853417114E-2"/>
             </c:manualLayout>
           </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>HMA Thin Overlay - 04-2R080 - Beg PM:10.400 - End PM:13.579 - HM Corrective, Length:3.179</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="13"/>
+        <c:idx val="15"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="8.0390637544360526E-3"/>
+              <c:y val="2.9214849015717741E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>HMA Thin Overlay - 04-2R080 - Beg PM:14.073 - End PM:19.000 - HM Corrective, Length:4.927</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.1186558507989587E-2"/>
+              <c:y val="-4.9624643693731832E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>HMA Medium Overlay - 04-20980 - Beg PM:19.000 - End PM:21.600 - Rehab, Length:2.6</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -786,115 +1155,21 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="14"/>
+        <c:idx val="20"/>
         <c:dLbl>
           <c:idx val="0"/>
           <c:layout>
             <c:manualLayout>
-              <c:x val="-5.3708420388679179E-2"/>
-              <c:y val="-3.7330084853417114E-2"/>
+              <c:x val="-2.1719454407269708E-3"/>
+              <c:y val="3.9318319081082603E-2"/>
             </c:manualLayout>
           </c:layout>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="1"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="15"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="16"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="-4.5677254723082289E-2"/>
-              <c:y val="3.6518561269647178E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="1"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="17"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:spPr/>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="18"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="4.919088970178092E-2"/>
-              <c:y val="-2.5968754680637994E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="1"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="19"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -912,31 +1187,20 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="20"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="5.019478540998053E-4"/>
-              <c:y val="2.2722660345558244E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="1"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="21"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -954,6 +1218,9 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -966,19 +1233,6 @@
               <c:y val="-2.8403325431947804E-2"/>
             </c:manualLayout>
           </c:layout>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="1"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -996,31 +1250,20 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="24"/>
+        <c:idx val="23"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout>
-            <c:manualLayout>
-              <c:x val="2.5599340559090071E-2"/>
-              <c:y val="-2.8403325431947804E-2"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="1"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="25"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1038,13 +1281,63 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="26"/>
+        <c:idx val="24"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-5.8328115454834599E-3"/>
+              <c:y val="-4.2740270369429734E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Chip Seal - 04-18904 - Beg PM: 0.200 - End PM:10.726 - HM Corrective, Length:10.526</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1062,13 +1355,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="27"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1086,13 +1384,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="28"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1110,13 +1413,18 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="29"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1134,16 +1442,21 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="30"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="31"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.0040429727229986E-3"/>
+              <c:y val="-3.1649419767027676E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -1161,6 +1474,296 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="4.1649278228004766E-2"/>
+              <c:y val="-3.6518561269647178E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cold In-Place Recycling - 04-107AXT - Beg PM:0.000 - End PM:10.271 - CAPM - Length: 10.271</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="9.2232082085731814E-3"/>
+              <c:y val="-4.4985465526486607E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>HMA Thin Overlay - 04-4R770 - Beg PM:   21.500 - End PM:   28.923 - Rehab - Length: 7.423</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="4.5719483026945675E-3"/>
+              <c:y val="-4.4796094036632518E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Digouts - 04-2R250 - Beg PM: 26.300 - End PM: 35.100 - HM Corrective, Length:8.8</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:spPr/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="4.5181933772534934E-3"/>
+              <c:y val="-2.9214849015717741E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="2.0080859454459786E-3"/>
+              <c:y val="-3.0026372599487681E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="1.5060644590844242E-3"/>
+              <c:y val="-2.8403325431947804E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="4.5181933772534197E-3"/>
+              <c:y val="-3.0026372599487799E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:spPr/>
+          <c:txPr>
+            <a:bodyPr/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="1"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -1298,16 +1901,33 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.5599340559090071E-2"/>
-                  <c:y val="-2.8403325431947804E-2"/>
+                  <c:x val="-5.8328115454834599E-3"/>
+                  <c:y val="-4.2740270369429734E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Chip Seal - 04-18904 - Beg PM: 0.200 - End PM:10.726 - HM Corrective, Length:10.526</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -1327,6 +1947,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1401,285 +2026,14 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$M$8:$M$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="10">
-                  <c:v>10.271000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$R$1:$R$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L02 - Digouts - 04-18919 - Beg PM:   25.700 - End PM:   26.300 - HM Corrective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$R$8:$R$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$V$1:$V$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L02 - Digouts - 04-2R250 - Beg PM:   26.300 - End PM:   35.100 - HM Corrective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$V$8:$V$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="7">
-                  <c:v>8.8000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$AA$1:$AA$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L02 - HMA Medium Overlay - 04-108BQT - Beg PM:   28.684 - End PM:   37.900 - CAPM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
             <c:dLbl>
-              <c:idx val="11"/>
-              <c:layout/>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.1649278228004766E-2"/>
+                  <c:y val="-3.6518561269647178E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1687,7 +2041,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>HMA Medium Overlay - 04-108BQT - Beg PM:28.684 - End PM:37.900 - CAPM, Length: 9.216</a:t>
+                      <a:t>Cold In-Place Recycling - 04-107AXT - Beg PM:0.000 - End PM:10.271 - CAPM - Length: 10.271</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -1698,6 +2052,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -1717,6 +2076,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1764,27 +2128,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AA$8:$AA$20</c:f>
+              <c:f>Sheet2!$M$8:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="11">
-                  <c:v>9.2159999999999993</c:v>
+                <c:pt idx="10">
+                  <c:v>10.271000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$AE$1:$AE$7</c:f>
+              <c:f>Sheet2!$R$1:$R$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L02 - HMA Medium Overlay - 04-4H210 - Beg PM:   37.900 - End PM:   48.558 - CAPM</c:v>
+                  <c:v> L02 - Digouts - 04-18919 - Beg PM:   25.700 - End PM:   26.300 - HM Corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$R$8:$R$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$V$1:$V$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L02 - Digouts - 04-2R250 - Beg PM:   26.300 - End PM:   35.100 - HM Corrective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1792,8 +2228,13 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="9"/>
-              <c:layout/>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5719483026945675E-3"/>
+                  <c:y val="-4.4796094036632518E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1801,7 +2242,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>HMA Medium Overlay - 04-4H210 - Beg PM: 37.900 - End PM: 48.558 - CAPM, Length: 10.658</a:t>
+                      <a:t>Digouts - 04-2R250 - Beg PM: 26.300 - End PM: 35.100 - HM Corrective, Length:8.8</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -1812,6 +2253,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -1831,6 +2277,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1878,303 +2329,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AE$8:$AE$20</c:f>
+              <c:f>Sheet2!$V$8:$V$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="9">
-                  <c:v>10.657999999999999</c:v>
+                <c:pt idx="7">
+                  <c:v>8.8000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$AJ$1:$AJ$7</c:f>
+              <c:f>Sheet2!$AA$1:$AA$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L02 - HMA Thin Overlay - 04-13409 - Beg PM:   10.800 - End PM:   15.000 - HM Corrective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$AJ$8:$AJ$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>4.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$AN$1:$AN$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L02 - HMA Thin Overlay - 04-15616 - Beg PM:   15.000 - End PM:   16.200 - HM Corrective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$AN$8:$AN$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$AR$1:$AR$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L02 - HMA Thin Overlay - 04-17801 - Beg PM:   16.200 - End PM:   17.400 - HM Corrective</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$AR$8:$AR$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="2">
-                  <c:v>1.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$AV$1:$AV$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L02 - HMA Thin Overlay - 04-19240 - Beg PM:   18.000 - End PM:   19.000 - HM Corrective</c:v>
+                  <c:v> L02 - HMA Medium Overlay - 04-108BQT - Beg PM:   28.684 - End PM:   37.900 - CAPM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2182,19 +2357,36 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="11"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.019478540998053E-4"/>
-                  <c:y val="2.2722660345558244E-2"/>
+                  <c:x val="-5.011810706830606E-4"/>
+                  <c:y val="-2.7591801848177871E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>HMA Medium Overlay - 04-108BQT - Beg PM:28.684 - End PM:37.900 - CAPM, Length: 9.216</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -2214,6 +2406,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2261,27 +2458,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AV$8:$AV$20</c:f>
+              <c:f>Sheet2!$AA$8:$AA$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
+                <c:pt idx="11">
+                  <c:v>9.2159999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$AZ$1:$AZ$7</c:f>
+              <c:f>Sheet2!$AE$1:$AE$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L02 - HMA Thin Overlay - 04-2R080 - Beg PM:   10.400 - End PM:   13.579 - HM Corrective</c:v>
+                  <c:v> L02 - HMA Medium Overlay - 04-4H210 - Beg PM:   37.900 - End PM:   48.558 - CAPM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2289,11 +2486,165 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="6"/>
+              <c:idx val="9"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.3708420388679179E-2"/>
-                  <c:y val="-3.7330084853417114E-2"/>
+                  <c:x val="5.1434418405313879E-3"/>
+                  <c:y val="-4.8853723929670079E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>HMA Medium Overlay - 04-4H210 - Beg PM: 37.900 - End PM: 48.558 - CAPM, Length: 10.658</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AE$8:$AE$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="9">
+                  <c:v>10.657999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AJ$1:$AJ$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L02 - HMA Thin Overlay - 04-13409 - Beg PM:   10.800 - End PM:   15.000 - HM Corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0040429727229986E-3"/>
+                  <c:y val="-3.1649419767027676E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2302,6 +2653,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -2321,6 +2677,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2368,206 +2729,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$AZ$8:$AZ$20</c:f>
+              <c:f>Sheet2!$AJ$8:$AJ$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="6">
-                  <c:v>3.1789999999999998</c:v>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$BD$1:$BD$7</c:f>
+              <c:f>Sheet2!$AN$1:$AN$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L02 - HMA Thin Overlay - 04-4R770 - Beg PM:   21.500 - End PM:   28.923 - Rehab</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="1"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$BD$8:$BD$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="8">
-                  <c:v>7.423</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$BJ$1:$BJ$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L03 - NA - NA - NA - NA - NA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$8:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$BJ$8:$BJ$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.2370000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$BP$1:$BP$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> L04 - Digouts - 04-2R250 - Beg PM:   41.337 - End PM:   42.014 - HM Corrective</c:v>
+                  <c:v> L02 - HMA Thin Overlay - 04-15616 - Beg PM:   15.000 - End PM:   16.200 - HM Corrective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2575,11 +2757,11 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="7"/>
+              <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.023374249197664E-2"/>
-                  <c:y val="-3.1649419767027551E-2"/>
+                  <c:x val="2.0080859454459786E-3"/>
+                  <c:y val="-3.0026372599487681E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -2588,6 +2770,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -2607,6 +2794,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2654,33 +2846,53 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$BP$8:$BP$20</c:f>
+              <c:f>Sheet2!$AN$8:$AN$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="7">
-                  <c:v>0.67700000000000005</c:v>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
+          <c:idx val="9"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$BU$1:$BU$7</c:f>
+              <c:f>Sheet2!$AR$1:$AR$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L04 - HMA Thin Overlay - 04-10663 - Beg PM:   31.500 - End PM:   33.000 - HM Corrective</c:v>
+                  <c:v> L02 - HMA Thin Overlay - 04-17801 - Beg PM:   16.200 - End PM:   17.400 - HM Corrective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5181933772534934E-3"/>
+                  <c:y val="-2.9214849015717741E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -2699,6 +2911,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2746,33 +2963,53 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$BU$8:$BU$20</c:f>
+              <c:f>Sheet2!$AR$8:$AR$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$BY$1:$BY$7</c:f>
+              <c:f>Sheet2!$AV$1:$AV$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> L04 - HMA Thin Overlay - 04-14508 - Beg PM:   31.300 - End PM:   34.800 - HM Corrective</c:v>
+                  <c:v> L02 - HMA Thin Overlay - 04-19240 - Beg PM:   18.000 - End PM:   19.000 - HM Corrective</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1719454407269708E-3"/>
+                  <c:y val="3.9318319081082603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr/>
             <c:txPr>
               <a:bodyPr/>
@@ -2791,6 +3028,719 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AV$8:$AV$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AZ$1:$AZ$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L02 - HMA Thin Overlay - 04-2R080 - Beg PM:   10.400 - End PM:   13.579 - HM Corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3708420388679179E-2"/>
+                  <c:y val="-3.7330084853417114E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>HMA Thin Overlay - 04-2R080 - Beg PM:10.400 - End PM:13.579 - HM Corrective, Length:3.179</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AZ$8:$AZ$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="6">
+                  <c:v>3.1789999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$BD$1:$BD$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L02 - HMA Thin Overlay - 04-4R770 - Beg PM:   21.500 - End PM:   28.923 - Rehab</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.2232082085731814E-3"/>
+                  <c:y val="-4.4985465526486607E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>HMA Thin Overlay - 04-4R770 - Beg PM:   21.500 - End PM:   28.923 - Rehab - Length: 7.423</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$BD$8:$BD$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="8">
+                  <c:v>7.423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$BJ$1:$BJ$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L03 - NA - NA - NA - NA - NA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$BJ$8:$BJ$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2370000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$BP$1:$BP$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L04 - Digouts - 04-2R250 - Beg PM:   41.337 - End PM:   42.014 - HM Corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9165319063156371E-3"/>
+                  <c:y val="-4.2402111026444325E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Digouts - 04-2R250 - Beg PM:41.337 - End PM:42.014 - HM Corrective, Length:0.677</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$BP$8:$BP$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="7">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$BU$1:$BU$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L04 - HMA Thin Overlay - 04-10663 - Beg PM:   31.500 - End PM:   33.000 - HM Corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5181933772534197E-3"/>
+                  <c:y val="-3.0026372599487799E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$8:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$BU$8:$BU$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$BY$1:$BY$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> L04 - HMA Thin Overlay - 04-14508 - Beg PM:   31.300 - End PM:   34.800 - HM Corrective</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5060644590844242E-3"/>
+                  <c:y val="-2.8403325431947804E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2879,6 +3829,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -2898,6 +3853,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2976,16 +3936,33 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.5677254723082289E-2"/>
-                  <c:y val="3.6518561269647178E-2"/>
+                  <c:x val="8.0390637544360526E-3"/>
+                  <c:y val="2.9214849015717741E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>HMA Thin Overlay - 04-2R080 - Beg PM:14.073 - End PM:19.000 - HM Corrective, Length:4.927</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -3005,6 +3982,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3158,16 +4140,33 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.919088970178092E-2"/>
-                  <c:y val="-2.5968754680637994E-2"/>
+                  <c:x val="1.1186558507989587E-2"/>
+                  <c:y val="-4.9624643693731832E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>HMA Medium Overlay - 04-20980 - Beg PM:19.000 - End PM:21.600 - Rehab, Length:2.6</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -3187,6 +4186,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -3255,20 +4259,40 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="45482496"/>
-        <c:axId val="43784384"/>
+        <c:axId val="355560384"/>
+        <c:axId val="355560776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45482496"/>
+        <c:axId val="355560384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>YEAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43784384"/>
+        <c:crossAx val="355560776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3276,27 +4300,46 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43784384"/>
+        <c:axId val="355560776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>POST</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> MILE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45482496"/>
+        <c:crossAx val="355560384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3304,7 +4347,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="3" orientation="landscape"/>
   </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
@@ -3312,7 +4355,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -3324,16 +4366,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>923926</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3849,7 +4891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:CY20" firstHeaderRow="1" firstDataRow="7" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -4414,7 +5456,7 @@
   <dataFields count="1">
     <dataField name="Sum of Length" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="32">
+  <chartFormats count="40">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5268,6 +6310,246 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="7">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="32">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="8">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="1" count="1" selected="0">
@@ -5556,7 +6838,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5566,7 +6848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
